--- a/dataIn/resultsyoungPergusa.xlsx
+++ b/dataIn/resultsyoungPergusa.xlsx
@@ -5,7 +5,7 @@
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Scripts\stsRankBuilder\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Python Scripts\stsRankBuilder\dataIn\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="218">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="558" uniqueCount="217">
   <si>
     <t>Start number</t>
   </si>
@@ -126,9 +126,6 @@
   </si>
   <si>
     <t>ALICE</t>
-  </si>
-  <si>
-    <t>MAGMA TEAM TRIATHLON</t>
   </si>
   <si>
     <t>ROMANIA</t>
@@ -1069,13 +1066,15 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:M114"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1368,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1394,16 +1393,16 @@
         <v>208</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>35</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>36</v>
       </c>
       <c r="E10" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1432,19 +1431,19 @@
         <v>17</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E11" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G11" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="H11" s="1" t="s">
         <v>39</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>40</v>
       </c>
       <c r="I11" s="3">
         <v>39464</v>
@@ -1464,19 +1463,19 @@
         <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="1" t="s">
         <v>41</v>
       </c>
-      <c r="D12" s="1" t="s">
-        <v>42</v>
-      </c>
       <c r="E12" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G12" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G12" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H12" s="1">
         <v>94273</v>
@@ -1502,16 +1501,16 @@
         <v>24</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G13" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H13" s="1"/>
       <c r="I13" s="3">
@@ -1532,19 +1531,19 @@
         <v>146</v>
       </c>
       <c r="C14" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D14" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D14" s="1" t="s">
-        <v>45</v>
-      </c>
       <c r="E14" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G14" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H14" s="1">
         <v>0</v>
@@ -1567,19 +1566,19 @@
         <v>147</v>
       </c>
       <c r="C15" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="D15" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="D15" s="1" t="s">
-        <v>47</v>
-      </c>
       <c r="E15" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F15" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G15" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H15" s="1">
         <v>102104</v>
@@ -1602,19 +1601,19 @@
         <v>142</v>
       </c>
       <c r="C16" s="1" t="s">
+        <v>47</v>
+      </c>
+      <c r="D16" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="D16" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="E16" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G16" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F16" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G16" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H16" s="1">
         <v>102435</v>
@@ -1637,19 +1636,19 @@
         <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>50</v>
       </c>
-      <c r="D17" s="1" t="s">
-        <v>51</v>
-      </c>
       <c r="E17" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F17" s="1" t="s">
         <v>28</v>
       </c>
       <c r="G17" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H17" s="1">
         <v>100602</v>
@@ -1672,19 +1671,19 @@
         <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>52</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>53</v>
-      </c>
       <c r="E18" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G18" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F18" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G18" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H18" s="1">
         <v>102447</v>
@@ -1707,19 +1706,19 @@
         <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E19" s="1" t="s">
+      <c r="G19" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G19" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H19" s="1"/>
       <c r="I19" s="3">
@@ -1740,19 +1739,19 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>57</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>58</v>
-      </c>
       <c r="E20" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G20" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G20" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H20" s="1">
         <v>102436</v>
@@ -1775,19 +1774,19 @@
         <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>59</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>60</v>
-      </c>
       <c r="E21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F21" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G21" s="1" t="s">
         <v>38</v>
-      </c>
-      <c r="F21" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G21" s="1" t="s">
-        <v>39</v>
       </c>
       <c r="H21" s="1">
         <v>4</v>
@@ -1804,25 +1803,25 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B22" s="1">
         <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G22" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H22" s="1"/>
       <c r="I22" s="3">
@@ -1858,10 +1857,10 @@
         <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>63</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>64</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -1870,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H24" s="1">
         <v>91150</v>
@@ -1899,7 +1898,7 @@
         <v>222</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -1911,7 +1910,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H25" s="1">
         <v>88969</v>
@@ -1940,10 +1939,10 @@
         <v>220</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>68</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1952,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H26" s="1">
         <v>91140</v>
@@ -1981,19 +1980,19 @@
         <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H27" s="1">
         <v>102438</v>
@@ -2022,10 +2021,10 @@
         <v>213</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
@@ -2034,7 +2033,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H28" s="1">
         <v>100601</v>
@@ -2063,10 +2062,10 @@
         <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>71</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>72</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
@@ -2075,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H29" s="1">
         <v>101640</v>
@@ -2104,22 +2103,22 @@
         <v>215</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>74</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>75</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>76</v>
       </c>
       <c r="I30" s="3">
         <v>39289</v>
@@ -2145,10 +2144,10 @@
         <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>77</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>78</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
@@ -2157,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H31" s="1">
         <v>100604</v>
@@ -2186,22 +2185,22 @@
         <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>79</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>80</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>81</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>65</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>82</v>
       </c>
       <c r="I32" s="3">
         <v>39080</v>
@@ -2227,10 +2226,10 @@
         <v>221</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>83</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>84</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
@@ -2239,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H33" s="1">
         <v>91493</v>
@@ -2268,19 +2267,19 @@
         <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>85</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>86</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2320,19 +2319,19 @@
         <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H36" s="1">
         <v>87769</v>
@@ -2361,19 +2360,19 @@
         <v>162</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="D37" s="1" t="s">
-        <v>90</v>
-      </c>
       <c r="E37" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H37" s="1">
         <v>95178</v>
@@ -2402,22 +2401,22 @@
         <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>91</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>92</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>93</v>
       </c>
       <c r="I38" s="3">
         <v>38806</v>
@@ -2443,22 +2442,22 @@
         <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>93</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>94</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>95</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>96</v>
       </c>
       <c r="I39" s="3">
         <v>38945</v>
@@ -2484,19 +2483,19 @@
         <v>166</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>96</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>97</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>98</v>
-      </c>
       <c r="E40" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="3">
@@ -2523,19 +2522,19 @@
         <v>163</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E41" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F41" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H41" s="1">
         <v>91489</v>
@@ -2564,19 +2563,19 @@
         <v>153</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>98</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>99</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>100</v>
-      </c>
       <c r="E42" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H42" s="1">
         <v>3</v>
@@ -2605,22 +2604,22 @@
         <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E43" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F43" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="I43" s="3">
         <v>39150</v>
@@ -2646,22 +2645,22 @@
         <v>157</v>
       </c>
       <c r="C44" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E44" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="I44" s="3">
         <v>39382</v>
@@ -2687,19 +2686,19 @@
         <v>155</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>104</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>105</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>106</v>
-      </c>
       <c r="E45" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H45" s="1">
         <v>102429</v>
@@ -2728,19 +2727,19 @@
         <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>107</v>
       </c>
-      <c r="D46" s="1" t="s">
-        <v>108</v>
-      </c>
       <c r="E46" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F46" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2769,19 +2768,19 @@
         <v>154</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>88</v>
       </c>
       <c r="H47" s="1">
         <v>102442</v>
@@ -2810,19 +2809,19 @@
         <v>165</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="E48" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3">
@@ -2849,19 +2848,19 @@
         <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E49" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="3">
@@ -2888,19 +2887,19 @@
         <v>156</v>
       </c>
       <c r="C50" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E50" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="H50" s="1">
         <v>102448</v>
@@ -2944,19 +2943,19 @@
         <v>109</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>113</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>114</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>115</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="3">
@@ -2998,19 +2997,19 @@
         <v>170</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="E54" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F54" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H54" s="1">
         <v>96362</v>
@@ -3033,19 +3032,19 @@
         <v>172</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>118</v>
       </c>
-      <c r="D55" s="1" t="s">
-        <v>119</v>
-      </c>
       <c r="E55" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F55" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H55" s="1">
         <v>99033</v>
@@ -3068,22 +3067,22 @@
         <v>173</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>120</v>
       </c>
-      <c r="D56" s="1" t="s">
-        <v>121</v>
-      </c>
       <c r="E56" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F56" s="1" t="s">
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="I56" s="3">
         <v>40258</v>
@@ -3103,19 +3102,19 @@
         <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="D57" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E57" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F57" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H57" s="1">
         <v>100460</v>
@@ -3141,16 +3140,16 @@
         <v>17</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="E58" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F58" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -3173,19 +3172,19 @@
         <v>169</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="E59" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F59" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3208,19 +3207,19 @@
         <v>168</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>124</v>
       </c>
-      <c r="D60" s="1" t="s">
-        <v>125</v>
-      </c>
       <c r="E60" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F60" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -3258,22 +3257,22 @@
         <v>225</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>125</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>126</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>127</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>128</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>129</v>
       </c>
       <c r="I62" s="3">
         <v>38077</v>
@@ -3302,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
@@ -3311,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H63" s="1">
         <v>94135</v>
@@ -3340,19 +3339,19 @@
         <v>223</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>131</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>132</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H64" s="1">
         <v>96880</v>
@@ -3381,7 +3380,7 @@
         <v>224</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>33</v>
@@ -3390,13 +3389,13 @@
         <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="I65" s="3">
         <v>38014</v>
@@ -3422,22 +3421,22 @@
         <v>226</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>135</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>136</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>137</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="I66" s="3">
         <v>38118</v>
@@ -3463,10 +3462,10 @@
         <v>230</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
@@ -3475,7 +3474,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H67" s="1">
         <v>91491</v>
@@ -3504,19 +3503,19 @@
         <v>232</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>139</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>140</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="3">
@@ -3543,19 +3542,19 @@
         <v>234</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>141</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>142</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="3">
@@ -3582,19 +3581,19 @@
         <v>233</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>142</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>143</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>144</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="3">
@@ -3615,25 +3614,25 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B71" s="1">
         <v>227</v>
       </c>
       <c r="C71" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="H71" s="1">
         <v>79703</v>
@@ -3671,19 +3670,19 @@
         <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>144</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>145</v>
       </c>
-      <c r="D73" s="1" t="s">
-        <v>146</v>
-      </c>
       <c r="E73" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H73" s="1">
         <v>85468</v>
@@ -3712,19 +3711,19 @@
         <v>184</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
       <c r="E74" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F74" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H74" s="1">
         <v>96355</v>
@@ -3753,19 +3752,19 @@
         <v>191</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E75" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="3">
@@ -3792,19 +3791,19 @@
         <v>174</v>
       </c>
       <c r="C76" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E76" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H76" s="1">
         <v>102451</v>
@@ -3836,16 +3835,16 @@
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="E77" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F77" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H77" s="1">
         <v>102103</v>
@@ -3874,22 +3873,22 @@
         <v>179</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>152</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>146</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>153</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>147</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>154</v>
       </c>
       <c r="I78" s="3">
         <v>38610</v>
@@ -3918,16 +3917,16 @@
         <v>32</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E79" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H79" s="1">
         <v>79706</v>
@@ -3956,19 +3955,19 @@
         <v>176</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E80" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H80" s="1">
         <v>102430</v>
@@ -3997,17 +3996,17 @@
         <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>157</v>
       </c>
-      <c r="D81" s="1" t="s">
-        <v>158</v>
-      </c>
       <c r="E81" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="3">
@@ -4034,19 +4033,19 @@
         <v>183</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>159</v>
       </c>
-      <c r="D82" s="1" t="s">
-        <v>160</v>
-      </c>
       <c r="E82" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H82" s="1">
         <v>91068</v>
@@ -4075,22 +4074,22 @@
         <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E83" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F83" s="1" t="s">
         <v>19</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="I83" s="3">
         <v>38612</v>
@@ -4116,19 +4115,19 @@
         <v>185</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>163</v>
       </c>
-      <c r="D84" s="1" t="s">
-        <v>164</v>
-      </c>
       <c r="E84" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F84" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H84" s="1">
         <v>102100</v>
@@ -4157,19 +4156,19 @@
         <v>186</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -4198,19 +4197,19 @@
         <v>190</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="E86" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="3">
@@ -4237,19 +4236,19 @@
         <v>188</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>167</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>168</v>
-      </c>
       <c r="E87" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="3">
@@ -4276,19 +4275,19 @@
         <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>169</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>170</v>
-      </c>
       <c r="E88" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -4332,10 +4331,10 @@
         <v>235</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>14</v>
@@ -4344,7 +4343,7 @@
         <v>28</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H90" s="1">
         <v>65513</v>
@@ -4373,22 +4372,22 @@
         <v>236</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>172</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>173</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>174</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="I91" s="3">
         <v>37686</v>
@@ -4414,19 +4413,19 @@
         <v>237</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="3">
@@ -4453,22 +4452,22 @@
         <v>238</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>177</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>178</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
       <c r="I93" s="3">
         <v>37351</v>
@@ -4494,19 +4493,19 @@
         <v>199</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>180</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>181</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>182</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="3">
@@ -4533,19 +4532,19 @@
         <v>202</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>182</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>183</v>
       </c>
-      <c r="D95" s="1" t="s">
-        <v>184</v>
-      </c>
       <c r="E95" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F95" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H95" s="1">
         <v>79069</v>
@@ -4574,19 +4573,19 @@
         <v>200</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>185</v>
       </c>
-      <c r="D96" s="1" t="s">
-        <v>186</v>
-      </c>
       <c r="E96" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F96" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H96" s="1">
         <v>96363</v>
@@ -4615,19 +4614,19 @@
         <v>198</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>187</v>
+        <v>186</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>55</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>56</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="3">
@@ -4654,22 +4653,22 @@
         <v>193</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>187</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>188</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>101</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>189</v>
       </c>
       <c r="I98" s="3">
         <v>37275</v>
@@ -4698,16 +4697,16 @@
         <v>32</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E99" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>34</v>
+        <v>55</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -4736,19 +4735,19 @@
         <v>203</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E100" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F100" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H100" s="1">
         <v>85469</v>
@@ -4777,22 +4776,22 @@
         <v>194</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>191</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>192</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>193</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>194</v>
       </c>
       <c r="I101" s="3">
         <v>37669</v>
@@ -4818,22 +4817,22 @@
         <v>196</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>194</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>195</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>196</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>197</v>
       </c>
       <c r="I102" s="3">
         <v>37766</v>
@@ -4859,19 +4858,19 @@
         <v>204</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
       <c r="E103" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F103" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H103" s="1">
         <v>100459</v>
@@ -4900,19 +4899,19 @@
         <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="E104" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F104" s="1" t="s">
         <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="H104" s="1">
         <v>102099</v>
@@ -4941,22 +4940,22 @@
         <v>195</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>198</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>199</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>200</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>182</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>201</v>
       </c>
       <c r="I105" s="3">
         <v>37648</v>
@@ -4997,22 +4996,22 @@
         <v>130</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G107" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>203</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>204</v>
       </c>
       <c r="I107" s="3">
         <v>36805</v>
@@ -5038,19 +5037,19 @@
         <v>132</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>205</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>206</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="3">
@@ -5077,22 +5076,22 @@
         <v>131</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>207</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>208</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="I109" s="3">
         <v>37119</v>
@@ -5118,19 +5117,19 @@
         <v>133</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>210</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>211</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="3">
@@ -5172,22 +5171,22 @@
         <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>213</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>75</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>214</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>215</v>
       </c>
       <c r="I112" s="3">
         <v>37064</v>
@@ -5213,22 +5212,22 @@
         <v>113</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="E113" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="I113" s="3">
         <v>37221</v>
@@ -5254,19 +5253,19 @@
         <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>56</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="3">

--- a/dataIn/resultsyoungPergusa.xlsx
+++ b/dataIn/resultsyoungPergusa.xlsx
@@ -170,9 +170,6 @@
     <t>MAGGIORE</t>
   </si>
   <si>
-    <t>ANTONINO</t>
-  </si>
-  <si>
     <t>MAGLIOCCO</t>
   </si>
   <si>
@@ -675,6 +672,9 @@
   </si>
   <si>
     <t>CatPos</t>
+  </si>
+  <si>
+    <t>ANTONIO</t>
   </si>
 </sst>
 </file>
@@ -1067,14 +1067,14 @@
   <dimension ref="A1:M114"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
@@ -1367,7 +1367,7 @@
         <v>14</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G9" s="1" t="s">
         <v>16</v>
@@ -1402,7 +1402,7 @@
         <v>14</v>
       </c>
       <c r="F10" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G10" s="1" t="s">
         <v>16</v>
@@ -1472,7 +1472,7 @@
         <v>37</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G12" s="1" t="s">
         <v>38</v>
@@ -1604,13 +1604,13 @@
         <v>47</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>48</v>
+        <v>216</v>
       </c>
       <c r="E16" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G16" s="1" t="s">
         <v>38</v>
@@ -1636,10 +1636,10 @@
         <v>138</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>37</v>
@@ -1671,16 +1671,16 @@
         <v>141</v>
       </c>
       <c r="C18" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="D18" s="1" t="s">
         <v>51</v>
       </c>
-      <c r="D18" s="1" t="s">
-        <v>52</v>
-      </c>
       <c r="E18" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G18" s="1" t="s">
         <v>38</v>
@@ -1706,16 +1706,16 @@
         <v>161</v>
       </c>
       <c r="C19" s="1" t="s">
+        <v>52</v>
+      </c>
+      <c r="D19" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="D19" s="1" t="s">
+      <c r="E19" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F19" s="1" t="s">
         <v>54</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F19" s="1" t="s">
-        <v>55</v>
       </c>
       <c r="G19" s="1" t="s">
         <v>38</v>
@@ -1739,16 +1739,16 @@
         <v>144</v>
       </c>
       <c r="C20" s="1" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" s="1" t="s">
         <v>56</v>
       </c>
-      <c r="D20" s="1" t="s">
-        <v>57</v>
-      </c>
       <c r="E20" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G20" s="1" t="s">
         <v>38</v>
@@ -1774,16 +1774,16 @@
         <v>143</v>
       </c>
       <c r="C21" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="D21" s="1" t="s">
         <v>58</v>
       </c>
-      <c r="D21" s="1" t="s">
-        <v>59</v>
-      </c>
       <c r="E21" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F21" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G21" s="1" t="s">
         <v>38</v>
@@ -1803,13 +1803,13 @@
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B22" s="1">
         <v>149</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D22" s="1" t="s">
         <v>44</v>
@@ -1857,10 +1857,10 @@
         <v>219</v>
       </c>
       <c r="C24" s="1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D24" s="1" t="s">
         <v>62</v>
-      </c>
-      <c r="D24" s="1" t="s">
-        <v>63</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>14</v>
@@ -1869,7 +1869,7 @@
         <v>15</v>
       </c>
       <c r="G24" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H24" s="1">
         <v>91150</v>
@@ -1898,7 +1898,7 @@
         <v>222</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>13</v>
@@ -1910,7 +1910,7 @@
         <v>15</v>
       </c>
       <c r="G25" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H25" s="1">
         <v>88969</v>
@@ -1939,10 +1939,10 @@
         <v>220</v>
       </c>
       <c r="C26" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D26" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="D26" s="1" t="s">
-        <v>67</v>
       </c>
       <c r="E26" s="1" t="s">
         <v>14</v>
@@ -1951,7 +1951,7 @@
         <v>15</v>
       </c>
       <c r="G26" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H26" s="1">
         <v>91140</v>
@@ -1980,19 +1980,19 @@
         <v>216</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E27" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F27" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G27" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H27" s="1">
         <v>102438</v>
@@ -2021,10 +2021,10 @@
         <v>213</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>14</v>
@@ -2033,7 +2033,7 @@
         <v>28</v>
       </c>
       <c r="G28" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H28" s="1">
         <v>100601</v>
@@ -2062,10 +2062,10 @@
         <v>212</v>
       </c>
       <c r="C29" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D29" s="1" t="s">
         <v>70</v>
-      </c>
-      <c r="D29" s="1" t="s">
-        <v>71</v>
       </c>
       <c r="E29" s="1" t="s">
         <v>14</v>
@@ -2074,7 +2074,7 @@
         <v>28</v>
       </c>
       <c r="G29" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H29" s="1">
         <v>101640</v>
@@ -2103,22 +2103,22 @@
         <v>215</v>
       </c>
       <c r="C30" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="D30" s="1" t="s">
         <v>72</v>
-      </c>
-      <c r="D30" s="1" t="s">
-        <v>73</v>
       </c>
       <c r="E30" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F30" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G30" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H30" s="1" t="s">
         <v>74</v>
-      </c>
-      <c r="G30" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>75</v>
       </c>
       <c r="I30" s="3">
         <v>39289</v>
@@ -2144,10 +2144,10 @@
         <v>214</v>
       </c>
       <c r="C31" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D31" s="1" t="s">
         <v>76</v>
-      </c>
-      <c r="D31" s="1" t="s">
-        <v>77</v>
       </c>
       <c r="E31" s="1" t="s">
         <v>14</v>
@@ -2156,7 +2156,7 @@
         <v>28</v>
       </c>
       <c r="G31" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H31" s="1">
         <v>100604</v>
@@ -2185,22 +2185,22 @@
         <v>217</v>
       </c>
       <c r="C32" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D32" s="1" t="s">
         <v>78</v>
-      </c>
-      <c r="D32" s="1" t="s">
-        <v>79</v>
       </c>
       <c r="E32" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F32" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G32" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="H32" s="1" t="s">
         <v>80</v>
-      </c>
-      <c r="G32" s="1" t="s">
-        <v>64</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>81</v>
       </c>
       <c r="I32" s="3">
         <v>39080</v>
@@ -2226,10 +2226,10 @@
         <v>221</v>
       </c>
       <c r="C33" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D33" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="D33" s="1" t="s">
-        <v>83</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>14</v>
@@ -2238,7 +2238,7 @@
         <v>15</v>
       </c>
       <c r="G33" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H33" s="1">
         <v>91493</v>
@@ -2267,19 +2267,19 @@
         <v>189</v>
       </c>
       <c r="C34" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="D34" s="1" t="s">
         <v>84</v>
-      </c>
-      <c r="D34" s="1" t="s">
-        <v>85</v>
       </c>
       <c r="E34" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G34" s="1" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H34" s="1"/>
       <c r="I34" s="1"/>
@@ -2319,19 +2319,19 @@
         <v>160</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D36" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G36" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E36" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F36" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G36" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H36" s="1">
         <v>87769</v>
@@ -2360,10 +2360,10 @@
         <v>162</v>
       </c>
       <c r="C37" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="D37" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="D37" s="1" t="s">
-        <v>89</v>
       </c>
       <c r="E37" s="1" t="s">
         <v>37</v>
@@ -2372,7 +2372,7 @@
         <v>15</v>
       </c>
       <c r="G37" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H37" s="1">
         <v>95178</v>
@@ -2401,22 +2401,22 @@
         <v>151</v>
       </c>
       <c r="C38" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="D38" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="D38" s="1" t="s">
+      <c r="E38" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F38" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G38" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H38" s="1" t="s">
         <v>91</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G38" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>92</v>
       </c>
       <c r="I38" s="3">
         <v>38806</v>
@@ -2442,22 +2442,22 @@
         <v>152</v>
       </c>
       <c r="C39" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="D39" s="1" t="s">
         <v>93</v>
       </c>
-      <c r="D39" s="1" t="s">
+      <c r="E39" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F39" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G39" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="H39" s="1" t="s">
         <v>94</v>
-      </c>
-      <c r="E39" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F39" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G39" s="1" t="s">
-        <v>87</v>
-      </c>
-      <c r="H39" s="1" t="s">
-        <v>95</v>
       </c>
       <c r="I39" s="3">
         <v>38945</v>
@@ -2483,19 +2483,19 @@
         <v>166</v>
       </c>
       <c r="C40" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="D40" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="D40" s="1" t="s">
-        <v>97</v>
-      </c>
       <c r="E40" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G40" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H40" s="1"/>
       <c r="I40" s="3">
@@ -2522,10 +2522,10 @@
         <v>163</v>
       </c>
       <c r="C41" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D41" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E41" s="1" t="s">
         <v>37</v>
@@ -2534,7 +2534,7 @@
         <v>15</v>
       </c>
       <c r="G41" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H41" s="1">
         <v>91489</v>
@@ -2563,19 +2563,19 @@
         <v>153</v>
       </c>
       <c r="C42" s="1" t="s">
+        <v>97</v>
+      </c>
+      <c r="D42" s="1" t="s">
         <v>98</v>
       </c>
-      <c r="D42" s="1" t="s">
-        <v>99</v>
-      </c>
       <c r="E42" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F42" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G42" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H42" s="1">
         <v>3</v>
@@ -2604,10 +2604,10 @@
         <v>158</v>
       </c>
       <c r="C43" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D43" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E43" s="1" t="s">
         <v>37</v>
@@ -2616,10 +2616,10 @@
         <v>19</v>
       </c>
       <c r="G43" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H43" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="I43" s="3">
         <v>39150</v>
@@ -2648,7 +2648,7 @@
         <v>43</v>
       </c>
       <c r="D44" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E44" s="1" t="s">
         <v>37</v>
@@ -2657,10 +2657,10 @@
         <v>19</v>
       </c>
       <c r="G44" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H44" s="1" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="I44" s="3">
         <v>39382</v>
@@ -2686,19 +2686,19 @@
         <v>155</v>
       </c>
       <c r="C45" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="D45" s="1" t="s">
         <v>104</v>
       </c>
-      <c r="D45" s="1" t="s">
-        <v>105</v>
-      </c>
       <c r="E45" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F45" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G45" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H45" s="1">
         <v>102429</v>
@@ -2727,10 +2727,10 @@
         <v>159</v>
       </c>
       <c r="C46" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="D46" s="1" t="s">
         <v>106</v>
-      </c>
-      <c r="D46" s="1" t="s">
-        <v>107</v>
       </c>
       <c r="E46" s="1" t="s">
         <v>37</v>
@@ -2739,7 +2739,7 @@
         <v>19</v>
       </c>
       <c r="G46" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H46" s="1">
         <v>0</v>
@@ -2768,19 +2768,19 @@
         <v>154</v>
       </c>
       <c r="C47" s="1" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="D47" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F47" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G47" s="1" t="s">
         <v>86</v>
-      </c>
-      <c r="E47" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G47" s="1" t="s">
-        <v>87</v>
       </c>
       <c r="H47" s="1">
         <v>102442</v>
@@ -2809,19 +2809,19 @@
         <v>165</v>
       </c>
       <c r="C48" s="1" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="D48" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="E48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F48" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G48" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H48" s="1"/>
       <c r="I48" s="3">
@@ -2848,19 +2848,19 @@
         <v>164</v>
       </c>
       <c r="C49" s="1" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="D49" s="1" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E49" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G49" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H49" s="1"/>
       <c r="I49" s="3">
@@ -2890,16 +2890,16 @@
         <v>47</v>
       </c>
       <c r="D50" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E50" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F50" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G50" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="H50" s="1">
         <v>102448</v>
@@ -2943,19 +2943,19 @@
         <v>109</v>
       </c>
       <c r="C52" s="1" t="s">
+        <v>111</v>
+      </c>
+      <c r="D52" s="1" t="s">
         <v>112</v>
       </c>
-      <c r="D52" s="1" t="s">
+      <c r="E52" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F52" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G52" s="1" t="s">
         <v>113</v>
-      </c>
-      <c r="E52" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F52" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G52" s="1" t="s">
-        <v>114</v>
       </c>
       <c r="H52" s="1"/>
       <c r="I52" s="3">
@@ -2997,10 +2997,10 @@
         <v>170</v>
       </c>
       <c r="C54" s="1" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="D54" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="E54" s="1" t="s">
         <v>37</v>
@@ -3009,7 +3009,7 @@
         <v>15</v>
       </c>
       <c r="G54" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H54" s="1">
         <v>96362</v>
@@ -3032,10 +3032,10 @@
         <v>172</v>
       </c>
       <c r="C55" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D55" s="1" t="s">
         <v>117</v>
-      </c>
-      <c r="D55" s="1" t="s">
-        <v>118</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>37</v>
@@ -3044,7 +3044,7 @@
         <v>15</v>
       </c>
       <c r="G55" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H55" s="1">
         <v>99033</v>
@@ -3067,10 +3067,10 @@
         <v>173</v>
       </c>
       <c r="C56" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="D56" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="D56" s="1" t="s">
-        <v>120</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>37</v>
@@ -3079,10 +3079,10 @@
         <v>23</v>
       </c>
       <c r="G56" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H56" s="1" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="I56" s="3">
         <v>40258</v>
@@ -3102,7 +3102,7 @@
         <v>171</v>
       </c>
       <c r="C57" s="1" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="D57" s="1" t="s">
         <v>36</v>
@@ -3114,7 +3114,7 @@
         <v>15</v>
       </c>
       <c r="G57" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H57" s="1">
         <v>100460</v>
@@ -3140,7 +3140,7 @@
         <v>17</v>
       </c>
       <c r="D58" s="1" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="E58" s="1" t="s">
         <v>37</v>
@@ -3149,7 +3149,7 @@
         <v>19</v>
       </c>
       <c r="G58" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H58" s="1">
         <v>0</v>
@@ -3172,10 +3172,10 @@
         <v>169</v>
       </c>
       <c r="C59" s="1" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D59" s="1" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="E59" s="1" t="s">
         <v>37</v>
@@ -3184,7 +3184,7 @@
         <v>19</v>
       </c>
       <c r="G59" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H59" s="1">
         <v>0</v>
@@ -3207,10 +3207,10 @@
         <v>168</v>
       </c>
       <c r="C60" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="D60" s="1" t="s">
         <v>123</v>
-      </c>
-      <c r="D60" s="1" t="s">
-        <v>124</v>
       </c>
       <c r="E60" s="1" t="s">
         <v>37</v>
@@ -3219,7 +3219,7 @@
         <v>19</v>
       </c>
       <c r="G60" s="1" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="H60" s="1">
         <v>0</v>
@@ -3257,22 +3257,22 @@
         <v>225</v>
       </c>
       <c r="C62" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="D62" s="1" t="s">
         <v>125</v>
-      </c>
-      <c r="D62" s="1" t="s">
-        <v>126</v>
       </c>
       <c r="E62" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F62" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G62" s="1" t="s">
+        <v>126</v>
+      </c>
+      <c r="H62" s="1" t="s">
         <v>127</v>
-      </c>
-      <c r="H62" s="1" t="s">
-        <v>128</v>
       </c>
       <c r="I62" s="3">
         <v>38077</v>
@@ -3301,7 +3301,7 @@
         <v>12</v>
       </c>
       <c r="D63" s="1" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="E63" s="1" t="s">
         <v>14</v>
@@ -3310,7 +3310,7 @@
         <v>15</v>
       </c>
       <c r="G63" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H63" s="1">
         <v>94135</v>
@@ -3339,19 +3339,19 @@
         <v>223</v>
       </c>
       <c r="C64" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="D64" s="1" t="s">
         <v>130</v>
-      </c>
-      <c r="D64" s="1" t="s">
-        <v>131</v>
       </c>
       <c r="E64" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G64" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H64" s="1">
         <v>96880</v>
@@ -3380,7 +3380,7 @@
         <v>224</v>
       </c>
       <c r="C65" s="1" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="D65" s="1" t="s">
         <v>33</v>
@@ -3389,13 +3389,13 @@
         <v>14</v>
       </c>
       <c r="F65" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G65" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H65" s="1" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="I65" s="3">
         <v>38014</v>
@@ -3421,22 +3421,22 @@
         <v>226</v>
       </c>
       <c r="C66" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="D66" s="1" t="s">
         <v>135</v>
-      </c>
-      <c r="D66" s="1" t="s">
-        <v>136</v>
       </c>
       <c r="E66" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F66" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G66" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H66" s="1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="I66" s="3">
         <v>38118</v>
@@ -3462,10 +3462,10 @@
         <v>230</v>
       </c>
       <c r="C67" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="D67" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E67" s="1" t="s">
         <v>14</v>
@@ -3474,7 +3474,7 @@
         <v>15</v>
       </c>
       <c r="G67" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H67" s="1">
         <v>91491</v>
@@ -3503,19 +3503,19 @@
         <v>232</v>
       </c>
       <c r="C68" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="D68" s="1" t="s">
         <v>138</v>
-      </c>
-      <c r="D68" s="1" t="s">
-        <v>139</v>
       </c>
       <c r="E68" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F68" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G68" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H68" s="1"/>
       <c r="I68" s="3">
@@ -3542,19 +3542,19 @@
         <v>234</v>
       </c>
       <c r="C69" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="D69" s="1" t="s">
         <v>140</v>
-      </c>
-      <c r="D69" s="1" t="s">
-        <v>141</v>
       </c>
       <c r="E69" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F69" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G69" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H69" s="1"/>
       <c r="I69" s="3">
@@ -3581,19 +3581,19 @@
         <v>233</v>
       </c>
       <c r="C70" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="D70" s="1" t="s">
         <v>142</v>
-      </c>
-      <c r="D70" s="1" t="s">
-        <v>143</v>
       </c>
       <c r="E70" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G70" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H70" s="1"/>
       <c r="I70" s="3">
@@ -3614,7 +3614,7 @@
     </row>
     <row r="71" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A71" s="1" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B71" s="1">
         <v>227</v>
@@ -3623,16 +3623,16 @@
         <v>40</v>
       </c>
       <c r="D71" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="E71" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F71" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G71" s="1" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
       <c r="H71" s="1">
         <v>79703</v>
@@ -3670,10 +3670,10 @@
         <v>181</v>
       </c>
       <c r="C73" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="D73" s="1" t="s">
         <v>144</v>
-      </c>
-      <c r="D73" s="1" t="s">
-        <v>145</v>
       </c>
       <c r="E73" s="1" t="s">
         <v>37</v>
@@ -3682,7 +3682,7 @@
         <v>15</v>
       </c>
       <c r="G73" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H73" s="1">
         <v>85468</v>
@@ -3711,10 +3711,10 @@
         <v>184</v>
       </c>
       <c r="C74" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D74" s="1" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="E74" s="1" t="s">
         <v>37</v>
@@ -3723,7 +3723,7 @@
         <v>15</v>
       </c>
       <c r="G74" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H74" s="1">
         <v>96355</v>
@@ -3752,19 +3752,19 @@
         <v>191</v>
       </c>
       <c r="C75" s="1" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
       <c r="D75" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="E75" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F75" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G75" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H75" s="1"/>
       <c r="I75" s="3">
@@ -3794,16 +3794,16 @@
         <v>47</v>
       </c>
       <c r="D76" s="1" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E76" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G76" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H76" s="1">
         <v>102451</v>
@@ -3835,7 +3835,7 @@
         <v>12</v>
       </c>
       <c r="D77" s="1" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E77" s="1" t="s">
         <v>37</v>
@@ -3844,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="G77" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H77" s="1">
         <v>102103</v>
@@ -3873,22 +3873,22 @@
         <v>179</v>
       </c>
       <c r="C78" s="1" t="s">
+        <v>150</v>
+      </c>
+      <c r="D78" s="1" t="s">
         <v>151</v>
       </c>
-      <c r="D78" s="1" t="s">
+      <c r="E78" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F78" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="G78" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="H78" s="1" t="s">
         <v>152</v>
-      </c>
-      <c r="E78" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F78" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G78" s="1" t="s">
-        <v>146</v>
-      </c>
-      <c r="H78" s="1" t="s">
-        <v>153</v>
       </c>
       <c r="I78" s="3">
         <v>38610</v>
@@ -3917,16 +3917,16 @@
         <v>32</v>
       </c>
       <c r="D79" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E79" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G79" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H79" s="1">
         <v>79706</v>
@@ -3955,19 +3955,19 @@
         <v>176</v>
       </c>
       <c r="C80" s="1" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="D80" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E80" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F80" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G80" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H80" s="1">
         <v>102430</v>
@@ -3996,17 +3996,17 @@
         <v>192</v>
       </c>
       <c r="C81" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="D81" s="1" t="s">
         <v>156</v>
-      </c>
-      <c r="D81" s="1" t="s">
-        <v>157</v>
       </c>
       <c r="E81" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F81" s="1"/>
       <c r="G81" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H81" s="1"/>
       <c r="I81" s="3">
@@ -4033,10 +4033,10 @@
         <v>183</v>
       </c>
       <c r="C82" s="1" t="s">
+        <v>157</v>
+      </c>
+      <c r="D82" s="1" t="s">
         <v>158</v>
-      </c>
-      <c r="D82" s="1" t="s">
-        <v>159</v>
       </c>
       <c r="E82" s="1" t="s">
         <v>37</v>
@@ -4045,7 +4045,7 @@
         <v>15</v>
       </c>
       <c r="G82" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H82" s="1">
         <v>91068</v>
@@ -4074,10 +4074,10 @@
         <v>178</v>
       </c>
       <c r="C83" s="1" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D83" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E83" s="1" t="s">
         <v>37</v>
@@ -4086,10 +4086,10 @@
         <v>19</v>
       </c>
       <c r="G83" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H83" s="1" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="I83" s="3">
         <v>38612</v>
@@ -4115,10 +4115,10 @@
         <v>185</v>
       </c>
       <c r="C84" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="D84" s="1" t="s">
         <v>162</v>
-      </c>
-      <c r="D84" s="1" t="s">
-        <v>163</v>
       </c>
       <c r="E84" s="1" t="s">
         <v>37</v>
@@ -4127,7 +4127,7 @@
         <v>15</v>
       </c>
       <c r="G84" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H84" s="1">
         <v>102100</v>
@@ -4156,19 +4156,19 @@
         <v>186</v>
       </c>
       <c r="C85" s="1" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D85" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E85" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F85" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E85" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F85" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G85" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H85" s="1">
         <v>0</v>
@@ -4197,19 +4197,19 @@
         <v>190</v>
       </c>
       <c r="C86" s="1" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D86" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="E86" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F86" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G86" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H86" s="1"/>
       <c r="I86" s="3">
@@ -4236,19 +4236,19 @@
         <v>188</v>
       </c>
       <c r="C87" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="D87" s="1" t="s">
         <v>166</v>
       </c>
-      <c r="D87" s="1" t="s">
-        <v>167</v>
-      </c>
       <c r="E87" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F87" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G87" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H87" s="1"/>
       <c r="I87" s="3">
@@ -4275,19 +4275,19 @@
         <v>187</v>
       </c>
       <c r="C88" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="D88" s="1" t="s">
         <v>168</v>
       </c>
-      <c r="D88" s="1" t="s">
-        <v>169</v>
-      </c>
       <c r="E88" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F88" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G88" s="1" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
       <c r="H88" s="1">
         <v>0</v>
@@ -4331,10 +4331,10 @@
         <v>235</v>
       </c>
       <c r="C90" s="1" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D90" s="1" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E90" s="1" t="s">
         <v>14</v>
@@ -4343,7 +4343,7 @@
         <v>28</v>
       </c>
       <c r="G90" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H90" s="1">
         <v>65513</v>
@@ -4372,22 +4372,22 @@
         <v>236</v>
       </c>
       <c r="C91" s="1" t="s">
+        <v>171</v>
+      </c>
+      <c r="D91" s="1" t="s">
         <v>172</v>
-      </c>
-      <c r="D91" s="1" t="s">
-        <v>173</v>
       </c>
       <c r="E91" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F91" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G91" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H91" s="1" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
       <c r="I91" s="3">
         <v>37686</v>
@@ -4413,19 +4413,19 @@
         <v>237</v>
       </c>
       <c r="C92" s="1" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="D92" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E92" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F92" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G92" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H92" s="1"/>
       <c r="I92" s="3">
@@ -4452,22 +4452,22 @@
         <v>238</v>
       </c>
       <c r="C93" s="1" t="s">
+        <v>175</v>
+      </c>
+      <c r="D93" s="1" t="s">
         <v>176</v>
-      </c>
-      <c r="D93" s="1" t="s">
-        <v>177</v>
       </c>
       <c r="E93" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F93" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G93" s="1" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="H93" s="1" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="I93" s="3">
         <v>37351</v>
@@ -4493,19 +4493,19 @@
         <v>199</v>
       </c>
       <c r="C94" s="1" t="s">
+        <v>178</v>
+      </c>
+      <c r="D94" s="1" t="s">
         <v>179</v>
       </c>
-      <c r="D94" s="1" t="s">
+      <c r="E94" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F94" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G94" s="1" t="s">
         <v>180</v>
-      </c>
-      <c r="E94" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F94" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G94" s="1" t="s">
-        <v>181</v>
       </c>
       <c r="H94" s="1"/>
       <c r="I94" s="3">
@@ -4532,10 +4532,10 @@
         <v>202</v>
       </c>
       <c r="C95" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="D95" s="1" t="s">
         <v>182</v>
-      </c>
-      <c r="D95" s="1" t="s">
-        <v>183</v>
       </c>
       <c r="E95" s="1" t="s">
         <v>37</v>
@@ -4544,7 +4544,7 @@
         <v>15</v>
       </c>
       <c r="G95" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H95" s="1">
         <v>79069</v>
@@ -4573,10 +4573,10 @@
         <v>200</v>
       </c>
       <c r="C96" s="1" t="s">
+        <v>183</v>
+      </c>
+      <c r="D96" s="1" t="s">
         <v>184</v>
-      </c>
-      <c r="D96" s="1" t="s">
-        <v>185</v>
       </c>
       <c r="E96" s="1" t="s">
         <v>37</v>
@@ -4585,7 +4585,7 @@
         <v>15</v>
       </c>
       <c r="G96" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H96" s="1">
         <v>96363</v>
@@ -4614,19 +4614,19 @@
         <v>198</v>
       </c>
       <c r="C97" s="1" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="D97" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F97" s="1" t="s">
         <v>54</v>
       </c>
-      <c r="E97" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F97" s="1" t="s">
-        <v>55</v>
-      </c>
       <c r="G97" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H97" s="1"/>
       <c r="I97" s="3">
@@ -4653,22 +4653,22 @@
         <v>193</v>
       </c>
       <c r="C98" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="D98" s="1" t="s">
+        <v>99</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F98" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G98" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H98" s="1" t="s">
         <v>187</v>
-      </c>
-      <c r="D98" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="E98" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F98" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G98" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H98" s="1" t="s">
-        <v>188</v>
       </c>
       <c r="I98" s="3">
         <v>37275</v>
@@ -4697,16 +4697,16 @@
         <v>32</v>
       </c>
       <c r="D99" s="1" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="E99" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F99" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G99" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H99" s="1">
         <v>0</v>
@@ -4735,10 +4735,10 @@
         <v>203</v>
       </c>
       <c r="C100" s="1" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="D100" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E100" s="1" t="s">
         <v>37</v>
@@ -4747,7 +4747,7 @@
         <v>15</v>
       </c>
       <c r="G100" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H100" s="1">
         <v>85469</v>
@@ -4776,22 +4776,22 @@
         <v>194</v>
       </c>
       <c r="C101" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="D101" s="1" t="s">
         <v>191</v>
       </c>
-      <c r="D101" s="1" t="s">
+      <c r="E101" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F101" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G101" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H101" s="1" t="s">
         <v>192</v>
-      </c>
-      <c r="E101" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F101" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G101" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H101" s="1" t="s">
-        <v>193</v>
       </c>
       <c r="I101" s="3">
         <v>37669</v>
@@ -4817,22 +4817,22 @@
         <v>196</v>
       </c>
       <c r="C102" s="1" t="s">
+        <v>193</v>
+      </c>
+      <c r="D102" s="1" t="s">
         <v>194</v>
       </c>
-      <c r="D102" s="1" t="s">
+      <c r="E102" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F102" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G102" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H102" s="1" t="s">
         <v>195</v>
-      </c>
-      <c r="E102" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F102" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G102" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H102" s="1" t="s">
-        <v>196</v>
       </c>
       <c r="I102" s="3">
         <v>37766</v>
@@ -4858,10 +4858,10 @@
         <v>204</v>
       </c>
       <c r="C103" s="1" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="D103" s="1" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="E103" s="1" t="s">
         <v>37</v>
@@ -4870,7 +4870,7 @@
         <v>15</v>
       </c>
       <c r="G103" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H103" s="1">
         <v>100459</v>
@@ -4899,10 +4899,10 @@
         <v>201</v>
       </c>
       <c r="C104" s="1" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="D104" s="1" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="E104" s="1" t="s">
         <v>37</v>
@@ -4911,7 +4911,7 @@
         <v>15</v>
       </c>
       <c r="G104" s="1" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="H104" s="1">
         <v>102099</v>
@@ -4940,22 +4940,22 @@
         <v>195</v>
       </c>
       <c r="C105" s="1" t="s">
+        <v>197</v>
+      </c>
+      <c r="D105" s="1" t="s">
         <v>198</v>
       </c>
-      <c r="D105" s="1" t="s">
+      <c r="E105" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F105" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G105" s="1" t="s">
+        <v>180</v>
+      </c>
+      <c r="H105" s="1" t="s">
         <v>199</v>
-      </c>
-      <c r="E105" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F105" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G105" s="1" t="s">
-        <v>181</v>
-      </c>
-      <c r="H105" s="1" t="s">
-        <v>200</v>
       </c>
       <c r="I105" s="3">
         <v>37648</v>
@@ -4996,22 +4996,22 @@
         <v>130</v>
       </c>
       <c r="C107" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="D107" s="1" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="E107" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F107" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G107" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="H107" s="1" t="s">
         <v>202</v>
-      </c>
-      <c r="H107" s="1" t="s">
-        <v>203</v>
       </c>
       <c r="I107" s="3">
         <v>36805</v>
@@ -5037,19 +5037,19 @@
         <v>132</v>
       </c>
       <c r="C108" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D108" s="1" t="s">
         <v>204</v>
-      </c>
-      <c r="D108" s="1" t="s">
-        <v>205</v>
       </c>
       <c r="E108" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F108" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G108" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H108" s="1"/>
       <c r="I108" s="3">
@@ -5076,22 +5076,22 @@
         <v>131</v>
       </c>
       <c r="C109" s="1" t="s">
+        <v>205</v>
+      </c>
+      <c r="D109" s="1" t="s">
         <v>206</v>
-      </c>
-      <c r="D109" s="1" t="s">
-        <v>207</v>
       </c>
       <c r="E109" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F109" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G109" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H109" s="1" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
       <c r="I109" s="3">
         <v>37119</v>
@@ -5117,19 +5117,19 @@
         <v>133</v>
       </c>
       <c r="C110" s="1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D110" s="1" t="s">
         <v>209</v>
-      </c>
-      <c r="D110" s="1" t="s">
-        <v>210</v>
       </c>
       <c r="E110" s="1" t="s">
         <v>14</v>
       </c>
       <c r="F110" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="G110" s="1" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="H110" s="1"/>
       <c r="I110" s="3">
@@ -5171,22 +5171,22 @@
         <v>112</v>
       </c>
       <c r="C112" s="1" t="s">
+        <v>210</v>
+      </c>
+      <c r="D112" s="1" t="s">
         <v>211</v>
       </c>
-      <c r="D112" s="1" t="s">
+      <c r="E112" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F112" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G112" s="1" t="s">
         <v>212</v>
       </c>
-      <c r="E112" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F112" s="1" t="s">
-        <v>74</v>
-      </c>
-      <c r="G112" s="1" t="s">
+      <c r="H112" s="1" t="s">
         <v>213</v>
-      </c>
-      <c r="H112" s="1" t="s">
-        <v>214</v>
       </c>
       <c r="I112" s="3">
         <v>37064</v>
@@ -5212,22 +5212,22 @@
         <v>113</v>
       </c>
       <c r="C113" s="1" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="D113" s="1" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="E113" s="1" t="s">
         <v>37</v>
       </c>
       <c r="F113" s="1" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="G113" s="1" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="H113" s="1" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="I113" s="3">
         <v>37221</v>
@@ -5253,19 +5253,19 @@
         <v>115</v>
       </c>
       <c r="C114" s="1" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D114" s="1" t="s">
+        <v>211</v>
+      </c>
+      <c r="E114" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F114" s="1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G114" s="1" t="s">
         <v>212</v>
-      </c>
-      <c r="E114" s="1" t="s">
-        <v>37</v>
-      </c>
-      <c r="F114" s="1" t="s">
-        <v>55</v>
-      </c>
-      <c r="G114" s="1" t="s">
-        <v>213</v>
       </c>
       <c r="H114" s="1"/>
       <c r="I114" s="3">
